--- a/natmiOut/OldD7/LR-pairs_lrc2p/Mrc1-Ptprc.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Mrc1-Ptprc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.19320695662235</v>
+        <v>0.316305</v>
       </c>
       <c r="H2">
-        <v>0.19320695662235</v>
+        <v>0.948915</v>
       </c>
       <c r="I2">
-        <v>0.001527864243029845</v>
+        <v>0.002355313614469985</v>
       </c>
       <c r="J2">
-        <v>0.001527864243029845</v>
+        <v>0.002355313614469984</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.318435231047449</v>
+        <v>0.1546356666666667</v>
       </c>
       <c r="N2">
-        <v>0.318435231047449</v>
+        <v>0.463907</v>
       </c>
       <c r="O2">
-        <v>0.001496427979473266</v>
+        <v>0.0006541814359458435</v>
       </c>
       <c r="P2">
-        <v>0.001496427979473266</v>
+        <v>0.0006541814359458435</v>
       </c>
       <c r="Q2">
-        <v>0.06152390187201247</v>
+        <v>0.048912034545</v>
       </c>
       <c r="R2">
-        <v>0.06152390187201247</v>
+        <v>0.440208310905</v>
       </c>
       <c r="S2">
-        <v>2.286338802106601E-06</v>
+        <v>1.54080244241677E-06</v>
       </c>
       <c r="T2">
-        <v>2.286338802106601E-06</v>
+        <v>1.540802442416769E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.19320695662235</v>
+        <v>0.316305</v>
       </c>
       <c r="H3">
-        <v>0.19320695662235</v>
+        <v>0.948915</v>
       </c>
       <c r="I3">
-        <v>0.001527864243029845</v>
+        <v>0.002355313614469985</v>
       </c>
       <c r="J3">
-        <v>0.001527864243029845</v>
+        <v>0.002355313614469984</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>212.413100729008</v>
+        <v>0.3253436666666666</v>
       </c>
       <c r="N3">
-        <v>212.413100729008</v>
+        <v>0.976031</v>
       </c>
       <c r="O3">
-        <v>0.9981964184427737</v>
+        <v>0.001376356384162467</v>
       </c>
       <c r="P3">
-        <v>0.9981964184427737</v>
+        <v>0.001376356384162467</v>
       </c>
       <c r="Q3">
-        <v>41.03968873856831</v>
+        <v>0.102907828485</v>
       </c>
       <c r="R3">
-        <v>41.03968873856831</v>
+        <v>0.9261704563649999</v>
       </c>
       <c r="S3">
-        <v>0.001525108615259171</v>
+        <v>3.241750929980539E-06</v>
       </c>
       <c r="T3">
-        <v>0.001525108615259171</v>
+        <v>3.241750929980538E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.19320695662235</v>
+        <v>0.316305</v>
       </c>
       <c r="H4">
-        <v>0.19320695662235</v>
+        <v>0.948915</v>
       </c>
       <c r="I4">
-        <v>0.001527864243029845</v>
+        <v>0.002355313614469985</v>
       </c>
       <c r="J4">
-        <v>0.001527864243029845</v>
+        <v>0.002355313614469984</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.065361328336855</v>
+        <v>231.9004236666667</v>
       </c>
       <c r="N4">
-        <v>0.065361328336855</v>
+        <v>695.701271</v>
       </c>
       <c r="O4">
-        <v>0.0003071535777529419</v>
+        <v>0.9810476161216116</v>
       </c>
       <c r="P4">
-        <v>0.0003071535777529419</v>
+        <v>0.9810476161216116</v>
       </c>
       <c r="Q4">
-        <v>0.01262826332875792</v>
+        <v>73.35126350788501</v>
       </c>
       <c r="R4">
-        <v>0.01262826332875792</v>
+        <v>660.161371570965</v>
       </c>
       <c r="S4">
-        <v>4.692889685674072E-07</v>
+        <v>0.002310674806694555</v>
       </c>
       <c r="T4">
-        <v>4.692889685674072E-07</v>
+        <v>0.002310674806694554</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.200885862673008</v>
+        <v>0.316305</v>
       </c>
       <c r="H5">
-        <v>0.200885862673008</v>
+        <v>0.948915</v>
       </c>
       <c r="I5">
-        <v>0.001588588381464044</v>
+        <v>0.002355313614469985</v>
       </c>
       <c r="J5">
-        <v>0.001588588381464044</v>
+        <v>0.002355313614469984</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.318435231047449</v>
+        <v>3.999992666666667</v>
       </c>
       <c r="N5">
-        <v>0.318435231047449</v>
+        <v>11.999978</v>
       </c>
       <c r="O5">
-        <v>0.001496427979473266</v>
+        <v>0.01692184605828007</v>
       </c>
       <c r="P5">
-        <v>0.001496427979473266</v>
+        <v>0.01692184605828007</v>
       </c>
       <c r="Q5">
-        <v>0.06396913609444541</v>
+        <v>1.26521768043</v>
       </c>
       <c r="R5">
-        <v>0.06396913609444541</v>
+        <v>11.38695912387</v>
       </c>
       <c r="S5">
-        <v>2.377208101888945E-06</v>
+        <v>3.98562544030323E-05</v>
       </c>
       <c r="T5">
-        <v>2.377208101888945E-06</v>
+        <v>3.985625440303228E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.200885862673008</v>
+        <v>0.2150266666666667</v>
       </c>
       <c r="H6">
-        <v>0.200885862673008</v>
+        <v>0.64508</v>
       </c>
       <c r="I6">
-        <v>0.001588588381464044</v>
+        <v>0.001601161016974437</v>
       </c>
       <c r="J6">
-        <v>0.001588588381464044</v>
+        <v>0.001601161016974436</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>212.413100729008</v>
+        <v>0.1546356666666667</v>
       </c>
       <c r="N6">
-        <v>212.413100729008</v>
+        <v>0.463907</v>
       </c>
       <c r="O6">
-        <v>0.9981964184427737</v>
+        <v>0.0006541814359458435</v>
       </c>
       <c r="P6">
-        <v>0.9981964184427737</v>
+        <v>0.0006541814359458435</v>
       </c>
       <c r="Q6">
-        <v>42.67078898299532</v>
+        <v>0.03325079195111112</v>
       </c>
       <c r="R6">
-        <v>42.67078898299532</v>
+        <v>0.29925712756</v>
       </c>
       <c r="S6">
-        <v>0.001585723232757211</v>
+        <v>1.047449813264844E-06</v>
       </c>
       <c r="T6">
-        <v>0.001585723232757211</v>
+        <v>1.047449813264844E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.200885862673008</v>
+        <v>0.2150266666666667</v>
       </c>
       <c r="H7">
-        <v>0.200885862673008</v>
+        <v>0.64508</v>
       </c>
       <c r="I7">
-        <v>0.001588588381464044</v>
+        <v>0.001601161016974437</v>
       </c>
       <c r="J7">
-        <v>0.001588588381464044</v>
+        <v>0.001601161016974436</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.065361328336855</v>
+        <v>0.3253436666666666</v>
       </c>
       <c r="N7">
-        <v>0.065361328336855</v>
+        <v>0.976031</v>
       </c>
       <c r="O7">
-        <v>0.0003071535777529419</v>
+        <v>0.001376356384162467</v>
       </c>
       <c r="P7">
-        <v>0.0003071535777529419</v>
+        <v>0.001376356384162467</v>
       </c>
       <c r="Q7">
-        <v>0.01313016682840284</v>
+        <v>0.06995756416444444</v>
       </c>
       <c r="R7">
-        <v>0.01313016682840284</v>
+        <v>0.62961807748</v>
       </c>
       <c r="S7">
-        <v>4.879406049434363E-07</v>
+        <v>2.203768187784834E-06</v>
       </c>
       <c r="T7">
-        <v>4.879406049434363E-07</v>
+        <v>2.203768187784834E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>125.447853611092</v>
+        <v>0.2150266666666667</v>
       </c>
       <c r="H8">
-        <v>125.447853611092</v>
+        <v>0.64508</v>
       </c>
       <c r="I8">
-        <v>0.9920309974752637</v>
+        <v>0.001601161016974437</v>
       </c>
       <c r="J8">
-        <v>0.9920309974752637</v>
+        <v>0.001601161016974436</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.318435231047449</v>
+        <v>231.9004236666667</v>
       </c>
       <c r="N8">
-        <v>0.318435231047449</v>
+        <v>695.701271</v>
       </c>
       <c r="O8">
-        <v>0.001496427979473266</v>
+        <v>0.9810476161216116</v>
       </c>
       <c r="P8">
-        <v>0.001496427979473266</v>
+        <v>0.9810476161216116</v>
       </c>
       <c r="Q8">
-        <v>39.94701624905463</v>
+        <v>49.86477509963112</v>
       </c>
       <c r="R8">
-        <v>39.94701624905463</v>
+        <v>448.78297589668</v>
       </c>
       <c r="S8">
-        <v>0.001484502941126757</v>
+        <v>0.001570815198729627</v>
       </c>
       <c r="T8">
-        <v>0.001484502941126757</v>
+        <v>0.001570815198729626</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>125.447853611092</v>
+        <v>0.2150266666666667</v>
       </c>
       <c r="H9">
-        <v>125.447853611092</v>
+        <v>0.64508</v>
       </c>
       <c r="I9">
-        <v>0.9920309974752637</v>
+        <v>0.001601161016974437</v>
       </c>
       <c r="J9">
-        <v>0.9920309974752637</v>
+        <v>0.001601161016974436</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>212.413100729008</v>
+        <v>3.999992666666667</v>
       </c>
       <c r="N9">
-        <v>212.413100729008</v>
+        <v>11.999978</v>
       </c>
       <c r="O9">
-        <v>0.9981964184427737</v>
+        <v>0.01692184605828007</v>
       </c>
       <c r="P9">
-        <v>0.9981964184427737</v>
+        <v>0.01692184605828007</v>
       </c>
       <c r="Q9">
-        <v>26646.76756533073</v>
+        <v>0.8601050898044446</v>
       </c>
       <c r="R9">
-        <v>26646.76756533073</v>
+        <v>7.74094580824</v>
       </c>
       <c r="S9">
-        <v>0.9902417886640206</v>
+        <v>2.709460024376058E-05</v>
       </c>
       <c r="T9">
-        <v>0.9902417886640206</v>
+        <v>2.709460024376057E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>125.447853611092</v>
+        <v>130.539482</v>
       </c>
       <c r="H10">
-        <v>125.447853611092</v>
+        <v>391.618446</v>
       </c>
       <c r="I10">
-        <v>0.9920309974752637</v>
+        <v>0.9720409705204137</v>
       </c>
       <c r="J10">
-        <v>0.9920309974752637</v>
+        <v>0.9720409705204136</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.065361328336855</v>
+        <v>0.1546356666666667</v>
       </c>
       <c r="N10">
-        <v>0.065361328336855</v>
+        <v>0.463907</v>
       </c>
       <c r="O10">
-        <v>0.0003071535777529419</v>
+        <v>0.0006541814359458435</v>
       </c>
       <c r="P10">
-        <v>0.0003071535777529419</v>
+        <v>0.0006541814359458435</v>
       </c>
       <c r="Q10">
-        <v>8.199438349028306</v>
+        <v>20.18605982539133</v>
       </c>
       <c r="R10">
-        <v>8.199438349028306</v>
+        <v>181.674538428522</v>
       </c>
       <c r="S10">
-        <v>0.0003047058701163469</v>
+        <v>0.0006358911578932356</v>
       </c>
       <c r="T10">
-        <v>0.0003047058701163469</v>
+        <v>0.0006358911578932356</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,57 +1089,57 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.613632004519413</v>
+        <v>130.539482</v>
       </c>
       <c r="H11">
-        <v>0.613632004519413</v>
+        <v>391.618446</v>
       </c>
       <c r="I11">
-        <v>0.004852549900242488</v>
+        <v>0.9720409705204137</v>
       </c>
       <c r="J11">
-        <v>0.004852549900242488</v>
+        <v>0.9720409705204136</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.318435231047449</v>
+        <v>0.3253436666666666</v>
       </c>
       <c r="N11">
-        <v>0.318435231047449</v>
+        <v>0.976031</v>
       </c>
       <c r="O11">
-        <v>0.001496427979473266</v>
+        <v>0.001376356384162467</v>
       </c>
       <c r="P11">
-        <v>0.001496427979473266</v>
+        <v>0.001376356384162467</v>
       </c>
       <c r="Q11">
-        <v>0.1954020491372485</v>
+        <v>42.47019371864733</v>
       </c>
       <c r="R11">
-        <v>0.1954020491372485</v>
+        <v>382.231743467826</v>
       </c>
       <c r="S11">
-        <v>7.261491442513065E-06</v>
+        <v>0.001337874795443252</v>
       </c>
       <c r="T11">
-        <v>7.261491442513065E-06</v>
+        <v>0.001337874795443252</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1151,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.613632004519413</v>
+        <v>130.539482</v>
       </c>
       <c r="H12">
-        <v>0.613632004519413</v>
+        <v>391.618446</v>
       </c>
       <c r="I12">
-        <v>0.004852549900242488</v>
+        <v>0.9720409705204137</v>
       </c>
       <c r="J12">
-        <v>0.004852549900242488</v>
+        <v>0.9720409705204136</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>212.413100729008</v>
+        <v>231.9004236666667</v>
       </c>
       <c r="N12">
-        <v>212.413100729008</v>
+        <v>695.701271</v>
       </c>
       <c r="O12">
-        <v>0.9981964184427737</v>
+        <v>0.9810476161216116</v>
       </c>
       <c r="P12">
-        <v>0.9981964184427737</v>
+        <v>0.9810476161216116</v>
       </c>
       <c r="Q12">
-        <v>130.3434767865252</v>
+        <v>30272.16118102721</v>
       </c>
       <c r="R12">
-        <v>130.3434767865252</v>
+        <v>272449.4506292448</v>
       </c>
       <c r="S12">
-        <v>0.004843797930736891</v>
+        <v>0.9536184769015896</v>
       </c>
       <c r="T12">
-        <v>0.004843797930736891</v>
+        <v>0.9536184769015895</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.613632004519413</v>
+        <v>130.539482</v>
       </c>
       <c r="H13">
-        <v>0.613632004519413</v>
+        <v>391.618446</v>
       </c>
       <c r="I13">
-        <v>0.004852549900242488</v>
+        <v>0.9720409705204137</v>
       </c>
       <c r="J13">
-        <v>0.004852549900242488</v>
+        <v>0.9720409705204136</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.065361328336855</v>
+        <v>3.999992666666667</v>
       </c>
       <c r="N13">
-        <v>0.065361328336855</v>
+        <v>11.999978</v>
       </c>
       <c r="O13">
-        <v>0.0003071535777529419</v>
+        <v>0.01692184605828007</v>
       </c>
       <c r="P13">
-        <v>0.0003071535777529419</v>
+        <v>0.01692184605828007</v>
       </c>
       <c r="Q13">
-        <v>0.04010780292539585</v>
+        <v>522.1569707104653</v>
       </c>
       <c r="R13">
-        <v>0.04010780292539585</v>
+        <v>4699.412736394188</v>
       </c>
       <c r="S13">
-        <v>1.490478063084162E-06</v>
+        <v>0.0164487276654876</v>
       </c>
       <c r="T13">
-        <v>1.490478063084162E-06</v>
+        <v>0.0164487276654876</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.223404333333333</v>
+      </c>
+      <c r="H14">
+        <v>9.670213</v>
+      </c>
+      <c r="I14">
+        <v>0.02400255484814197</v>
+      </c>
+      <c r="J14">
+        <v>0.02400255484814196</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1546356666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.463907</v>
+      </c>
+      <c r="O14">
+        <v>0.0006541814359458435</v>
+      </c>
+      <c r="P14">
+        <v>0.0006541814359458435</v>
+      </c>
+      <c r="Q14">
+        <v>0.4984532780212222</v>
+      </c>
+      <c r="R14">
+        <v>4.486079502191</v>
+      </c>
+      <c r="S14">
+        <v>1.570202579692638E-05</v>
+      </c>
+      <c r="T14">
+        <v>1.570202579692638E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.223404333333333</v>
+      </c>
+      <c r="H15">
+        <v>9.670213</v>
+      </c>
+      <c r="I15">
+        <v>0.02400255484814197</v>
+      </c>
+      <c r="J15">
+        <v>0.02400255484814196</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3253436666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.976031</v>
+      </c>
+      <c r="O15">
+        <v>0.001376356384162467</v>
+      </c>
+      <c r="P15">
+        <v>0.001376356384162467</v>
+      </c>
+      <c r="Q15">
+        <v>1.048714184955889</v>
+      </c>
+      <c r="R15">
+        <v>9.438427664603001</v>
+      </c>
+      <c r="S15">
+        <v>3.303606960144997E-05</v>
+      </c>
+      <c r="T15">
+        <v>3.303606960144996E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.223404333333333</v>
+      </c>
+      <c r="H16">
+        <v>9.670213</v>
+      </c>
+      <c r="I16">
+        <v>0.02400255484814197</v>
+      </c>
+      <c r="J16">
+        <v>0.02400255484814196</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>231.9004236666667</v>
+      </c>
+      <c r="N16">
+        <v>695.701271</v>
+      </c>
+      <c r="O16">
+        <v>0.9810476161216116</v>
+      </c>
+      <c r="P16">
+        <v>0.9810476161216116</v>
+      </c>
+      <c r="Q16">
+        <v>747.5088305489693</v>
+      </c>
+      <c r="R16">
+        <v>6727.579474940723</v>
+      </c>
+      <c r="S16">
+        <v>0.02354764921459791</v>
+      </c>
+      <c r="T16">
+        <v>0.0235476492145979</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.223404333333333</v>
+      </c>
+      <c r="H17">
+        <v>9.670213</v>
+      </c>
+      <c r="I17">
+        <v>0.02400255484814197</v>
+      </c>
+      <c r="J17">
+        <v>0.02400255484814196</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.999992666666667</v>
+      </c>
+      <c r="N17">
+        <v>11.999978</v>
+      </c>
+      <c r="O17">
+        <v>0.01692184605828007</v>
+      </c>
+      <c r="P17">
+        <v>0.01692184605828007</v>
+      </c>
+      <c r="Q17">
+        <v>12.89359369503489</v>
+      </c>
+      <c r="R17">
+        <v>116.042343255314</v>
+      </c>
+      <c r="S17">
+        <v>0.0004061675381456823</v>
+      </c>
+      <c r="T17">
+        <v>0.0004061675381456822</v>
       </c>
     </row>
   </sheetData>
